--- a/2ª Aula/venda_carros.xlsx
+++ b/2ª Aula/venda_carros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\power_bi\aula02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f76b5ad27e453ff3/Área de Trabalho/POWER_BI/2ª Aula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B75614-C038-4149-BF1C-EEF132941679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A5B75614-C038-4149-BF1C-EEF132941679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B4058B-747F-4ED3-B5B5-B988AB9C8791}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VendaCarros" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,8 +362,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +647,7 @@
   <dimension ref="A1:L458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
